--- a/data/Book3.xlsx
+++ b/data/Book3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Backups of Grahams IMAC/PythonProjects/PySeas_Master_Folder/PySeas/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E6A40E2-020C-3A44-B334-230980CF5610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D5AA5C-24C9-2043-A936-4EDC54F6AB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9180" yWindow="4600" windowWidth="27240" windowHeight="16440" xr2:uid="{1B44CB8D-717F-F24F-B809-6F42B6205F9C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="44800" windowHeight="25200" xr2:uid="{1B44CB8D-717F-F24F-B809-6F42B6205F9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -91,9 +91,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,13 +410,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7C074B-6EFF-6D4D-BB58-3EBB38DA95E8}">
   <dimension ref="A1:G166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
@@ -429,7 +429,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
@@ -446,19 +446,19 @@
       <c r="B2">
         <v>42002</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>0.96539351900000003</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <f ca="1">NOW()</f>
-        <v>44874.505088078702</v>
-      </c>
-      <c r="G2" s="3">
+        <v>44874.50854224537</v>
+      </c>
+      <c r="G2" s="2">
         <f ca="1">TIME(HOUR(F2)+6, MINUTE(F2), SECOND(F2))</f>
-        <v>0.75509259259259265</v>
+        <v>0.75854166666666656</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -468,7 +468,7 @@
       <c r="B3">
         <v>42059</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>0.92372685200000004</v>
       </c>
     </row>
@@ -479,7 +479,7 @@
       <c r="B4">
         <v>44007</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>0.92372685200000004</v>
       </c>
     </row>
@@ -490,7 +490,7 @@
       <c r="B5">
         <v>44007</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>0.92372685200000004</v>
       </c>
     </row>
@@ -501,7 +501,7 @@
       <c r="B6">
         <v>44013</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>0.92372685200000004</v>
       </c>
     </row>
@@ -512,7 +512,7 @@
       <c r="B7">
         <v>44013</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>0.92372685200000004</v>
       </c>
     </row>
@@ -523,7 +523,7 @@
       <c r="B8">
         <v>44020</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>0.92372685200000004</v>
       </c>
     </row>
@@ -534,7 +534,7 @@
       <c r="B9">
         <v>44020</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>0.92372685200000004</v>
       </c>
     </row>
@@ -545,7 +545,7 @@
       <c r="B10">
         <v>44025</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>0.92372685200000004</v>
       </c>
     </row>
@@ -556,7 +556,7 @@
       <c r="B11">
         <v>44066</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>0.92372685200000004</v>
       </c>
     </row>
@@ -567,7 +567,7 @@
       <c r="B12">
         <v>45002</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>0.92372685200000004</v>
       </c>
     </row>
@@ -578,7 +578,7 @@
       <c r="B13">
         <v>45007</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>0.92372685200000004</v>
       </c>
     </row>
@@ -589,7 +589,7 @@
       <c r="B14">
         <v>45012</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <v>0.92372685200000004</v>
       </c>
     </row>
@@ -600,7 +600,7 @@
       <c r="B15">
         <v>45003</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <v>0.88206018500000005</v>
       </c>
     </row>
@@ -611,7 +611,7 @@
       <c r="B16">
         <v>46053</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <v>0.88206018500000005</v>
       </c>
     </row>
@@ -622,7 +622,7 @@
       <c r="B17">
         <v>46084</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <v>0.88206018500000005</v>
       </c>
     </row>
@@ -633,7 +633,7 @@
       <c r="B18">
         <v>42059</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="3">
         <v>0.88206018500000005</v>
       </c>
     </row>
@@ -644,7 +644,7 @@
       <c r="B19">
         <v>46089</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="3">
         <v>0.88206018500000005</v>
       </c>
     </row>
@@ -655,7 +655,7 @@
       <c r="B20">
         <v>44027</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="3">
         <v>0.88206018500000005</v>
       </c>
     </row>
@@ -666,7 +666,7 @@
       <c r="B21">
         <v>44025</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="3">
         <v>0.88206018500000005</v>
       </c>
     </row>
@@ -677,7 +677,7 @@
       <c r="B22">
         <v>44020</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="3">
         <v>0.88206018500000005</v>
       </c>
     </row>
@@ -688,7 +688,7 @@
       <c r="B23">
         <v>44007</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="3">
         <v>0.88206018500000005</v>
       </c>
     </row>
@@ -699,7 +699,7 @@
       <c r="B24">
         <v>44013</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="3">
         <v>0.88206018500000005</v>
       </c>
     </row>
@@ -710,7 +710,7 @@
       <c r="B25">
         <v>42060</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="3">
         <v>0.88206018500000005</v>
       </c>
     </row>
@@ -721,7 +721,7 @@
       <c r="B26">
         <v>44066</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="3">
         <v>0.88206018500000005</v>
       </c>
     </row>
@@ -732,7 +732,7 @@
       <c r="B27">
         <v>45012</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="3">
         <v>0.88206018500000005</v>
       </c>
     </row>
@@ -743,7 +743,7 @@
       <c r="B28">
         <v>41043</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="3">
         <v>0.88206018500000005</v>
       </c>
     </row>
@@ -754,7 +754,7 @@
       <c r="B29">
         <v>41046</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="3">
         <v>0.88206018500000005</v>
       </c>
     </row>
@@ -765,7 +765,7 @@
       <c r="B30">
         <v>44011</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="3">
         <v>0.84039351900000003</v>
       </c>
     </row>
@@ -776,7 +776,7 @@
       <c r="B31">
         <v>46089</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="3">
         <v>0.84039351900000003</v>
       </c>
     </row>
@@ -787,7 +787,7 @@
       <c r="B32">
         <v>46084</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="3">
         <v>0.84039351900000003</v>
       </c>
     </row>
@@ -798,7 +798,7 @@
       <c r="B33">
         <v>45007</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="3">
         <v>0.84039351900000003</v>
       </c>
     </row>
@@ -809,7 +809,7 @@
       <c r="B34">
         <v>46072</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="3">
         <v>0.84039351900000003</v>
       </c>
     </row>
@@ -820,7 +820,7 @@
       <c r="B35">
         <v>46071</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="3">
         <v>0.84039351900000003</v>
       </c>
     </row>
@@ -831,7 +831,7 @@
       <c r="B36">
         <v>46078</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="3">
         <v>0.84039351900000003</v>
       </c>
     </row>
@@ -842,7 +842,7 @@
       <c r="B37">
         <v>46084</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="3">
         <v>0.79872685200000004</v>
       </c>
     </row>
@@ -853,7 +853,7 @@
       <c r="B38">
         <v>46072</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="3">
         <v>0.79872685200000004</v>
       </c>
     </row>
@@ -864,7 +864,7 @@
       <c r="B39">
         <v>46026</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="3">
         <v>0.79872685200000004</v>
       </c>
     </row>
@@ -875,7 +875,7 @@
       <c r="B40">
         <v>46071</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="3">
         <v>0.75706018500000005</v>
       </c>
     </row>
@@ -886,7 +886,7 @@
       <c r="B41">
         <v>46072</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="3">
         <v>0.75706018500000005</v>
       </c>
     </row>
@@ -897,7 +897,7 @@
       <c r="B42">
         <v>46066</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="3">
         <v>0.71539351900000003</v>
       </c>
     </row>
@@ -908,7 +908,7 @@
       <c r="B43">
         <v>46078</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="3">
         <v>0.71539351900000003</v>
       </c>
     </row>
@@ -919,7 +919,7 @@
       <c r="B44">
         <v>51001</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="3">
         <v>0.71539351900000003</v>
       </c>
     </row>
@@ -930,7 +930,7 @@
       <c r="B45">
         <v>46002</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="3">
         <v>0.67372685200000004</v>
       </c>
     </row>
@@ -941,7 +941,7 @@
       <c r="B46">
         <v>46027</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="3">
         <v>0.67372685200000004</v>
       </c>
     </row>
@@ -952,7 +952,7 @@
       <c r="B47">
         <v>46059</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="3">
         <v>0.67372685200000004</v>
       </c>
     </row>
@@ -963,7 +963,7 @@
       <c r="B48">
         <v>46088</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="3">
         <v>0.67372685200000004</v>
       </c>
     </row>
@@ -974,7 +974,7 @@
       <c r="B49">
         <v>46089</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="3">
         <v>0.67372685200000004</v>
       </c>
     </row>
@@ -985,7 +985,7 @@
       <c r="B50">
         <v>51000</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="3">
         <v>0.67372685200000004</v>
       </c>
     </row>
@@ -996,7 +996,7 @@
       <c r="B51">
         <v>51002</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="3">
         <v>0.67372685200000004</v>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       <c r="B52">
         <v>51003</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="3">
         <v>0.67372685200000004</v>
       </c>
     </row>
@@ -1018,7 +1018,7 @@
       <c r="B53">
         <v>46002</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="3">
         <v>0.63206018500000005</v>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       <c r="B54">
         <v>46011</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="3">
         <v>0.63206018500000005</v>
       </c>
     </row>
@@ -1040,7 +1040,7 @@
       <c r="B55">
         <v>46012</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="3">
         <v>0.63206018500000005</v>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       <c r="B56">
         <v>46026</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="3">
         <v>0.63206018500000005</v>
       </c>
     </row>
@@ -1062,7 +1062,7 @@
       <c r="B57">
         <v>46028</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="3">
         <v>0.63206018500000005</v>
       </c>
     </row>
@@ -1073,7 +1073,7 @@
       <c r="B58">
         <v>46042</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="3">
         <v>0.63206018500000005</v>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
       <c r="B59">
         <v>46054</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="3">
         <v>0.63206018500000005</v>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
       <c r="B60">
         <v>46069</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="3">
         <v>0.63206018500000005</v>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       <c r="B61">
         <v>46088</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="3">
         <v>0.63206018500000005</v>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       <c r="B62">
         <v>46011</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="3">
         <v>0.59039351900000003</v>
       </c>
     </row>
@@ -1128,7 +1128,7 @@
       <c r="B63">
         <v>46012</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="3">
         <v>0.59039351900000003</v>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
       <c r="B64">
         <v>46026</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="3">
         <v>0.59039351900000003</v>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       <c r="B65">
         <v>46053</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="3">
         <v>0.59039351900000003</v>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       <c r="B66">
         <v>46053</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="3">
         <v>0.59039351900000003</v>
       </c>
     </row>
@@ -1172,7 +1172,7 @@
       <c r="B67">
         <v>46054</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="3">
         <v>0.59039351900000003</v>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       <c r="B68">
         <v>46069</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="3">
         <v>0.59039351900000003</v>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       <c r="B69">
         <v>42039</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="3">
         <v>0.54872685200000004</v>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
       <c r="B70">
         <v>42040</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="3">
         <v>0.54872685200000004</v>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       <c r="B71">
         <v>44011</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="3">
         <v>0.54872685200000004</v>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
       <c r="B72">
         <v>44025</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="3">
         <v>0.54872685200000004</v>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
       <c r="B73">
         <v>44027</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="3">
         <v>0.54872685200000004</v>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       <c r="B74">
         <v>44066</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="3">
         <v>0.54872685200000004</v>
       </c>
     </row>
@@ -1260,7 +1260,7 @@
       <c r="B75">
         <v>45002</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="3">
         <v>0.54872685200000004</v>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       <c r="B76">
         <v>45003</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="3">
         <v>0.54872685200000004</v>
       </c>
     </row>
@@ -1282,7 +1282,7 @@
       <c r="B77">
         <v>45005</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="3">
         <v>0.54872685200000004</v>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       <c r="B78">
         <v>45012</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="3">
         <v>0.54872685200000004</v>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
       <c r="B79">
         <v>45002</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="3">
         <v>0.50706018500000005</v>
       </c>
     </row>
@@ -1315,7 +1315,7 @@
       <c r="B80">
         <v>45003</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="3">
         <v>0.50706018500000005</v>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       <c r="B81">
         <v>45005</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="3">
         <v>0.50706018500000005</v>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       <c r="B82">
         <v>45012</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="3">
         <v>0.50706018500000005</v>
       </c>
     </row>
@@ -1348,7 +1348,7 @@
       <c r="B83">
         <v>44007</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="3">
         <v>0.46539351899999998</v>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
       <c r="B84">
         <v>44013</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="3">
         <v>0.46539351899999998</v>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       <c r="B85">
         <v>44025</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="3">
         <v>0.46539351899999998</v>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       <c r="B86">
         <v>45012</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="3">
         <v>0.46539351899999998</v>
       </c>
     </row>
@@ -1392,7 +1392,7 @@
       <c r="B87">
         <v>46053</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="3">
         <v>0.46539351899999998</v>
       </c>
     </row>
@@ -1403,7 +1403,7 @@
       <c r="B88">
         <v>45012</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="3">
         <v>0.46539351899999998</v>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
       <c r="B89">
         <v>45005</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="3">
         <v>0.46539351899999998</v>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       <c r="B90">
         <v>44027</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="3">
         <v>0.46539351899999998</v>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
       <c r="B91">
         <v>44025</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="3">
         <v>0.46539351899999998</v>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       <c r="B92">
         <v>44020</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92" s="3">
         <v>0.46539351899999998</v>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
       <c r="B93">
         <v>44007</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="3">
         <v>0.46539351899999998</v>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
       <c r="B94">
         <v>44013</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="3">
         <v>0.46539351899999998</v>
       </c>
     </row>
@@ -1480,7 +1480,7 @@
       <c r="B95">
         <v>42059</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="3">
         <v>0.46539351899999998</v>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       <c r="B96">
         <v>44011</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="3">
         <v>0.46539351899999998</v>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
       <c r="B97">
         <v>42060</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="3">
         <v>0.46539351899999998</v>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       <c r="B98">
         <v>44066</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="3">
         <v>0.46539351899999998</v>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       <c r="B99">
         <v>42059</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="3">
         <v>0.42372685199999999</v>
       </c>
     </row>
@@ -1535,7 +1535,7 @@
       <c r="B100">
         <v>42060</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="3">
         <v>0.42372685199999999</v>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       <c r="B101">
         <v>46071</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="3">
         <v>0.21539351900000001</v>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       <c r="B102">
         <v>46071</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102" s="3">
         <v>0.17372685199999999</v>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       <c r="B103">
         <v>46072</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" s="3">
         <v>0.17372685199999999</v>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       <c r="B104">
         <v>51002</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104" s="3">
         <v>0.17372685199999999</v>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       <c r="B105">
         <v>51003</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105" s="3">
         <v>0.17372685199999999</v>
       </c>
     </row>
@@ -1601,7 +1601,7 @@
       <c r="B106">
         <v>51101</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106" s="3">
         <v>0.17372685199999999</v>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       <c r="B107">
         <v>51104</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107" s="3">
         <v>0.17372685199999999</v>
       </c>
     </row>
@@ -1623,7 +1623,7 @@
       <c r="B108">
         <v>51101</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108" s="3">
         <v>0.17372685199999999</v>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
       <c r="B109">
         <v>51000</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109" s="3">
         <v>0.17372685199999999</v>
       </c>
     </row>
@@ -1645,7 +1645,7 @@
       <c r="B110">
         <v>51002</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110" s="3">
         <v>0.17372685199999999</v>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       <c r="B111">
         <v>51003</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111" s="3">
         <v>0.17372685199999999</v>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       <c r="B112">
         <v>46072</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112" s="3">
         <v>0.17372685199999999</v>
       </c>
     </row>
@@ -1678,7 +1678,7 @@
       <c r="B113">
         <v>46071</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113" s="3">
         <v>0.132060185</v>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       <c r="B114">
         <v>46072</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C114" s="3">
         <v>0.132060185</v>
       </c>
     </row>
@@ -1700,7 +1700,7 @@
       <c r="B115">
         <v>51000</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115" s="3">
         <v>0.132060185</v>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       <c r="B116">
         <v>51001</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C116" s="3">
         <v>0.132060185</v>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       <c r="B117">
         <v>51002</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C117" s="3">
         <v>0.132060185</v>
       </c>
     </row>
@@ -1733,7 +1733,7 @@
       <c r="B118">
         <v>51003</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C118" s="3">
         <v>0.132060185</v>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
       <c r="B119">
         <v>46069</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119" s="3">
         <v>0.132060185</v>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       <c r="B120">
         <v>51101</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C120" s="3">
         <v>0.132060185</v>
       </c>
     </row>
@@ -1766,7 +1766,7 @@
       <c r="B121">
         <v>51004</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121" s="3">
         <v>0.132060185</v>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       <c r="B122">
         <v>51001</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C122" s="3">
         <v>0.132060185</v>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       <c r="B123">
         <v>51000</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C123" s="3">
         <v>0.132060185</v>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       <c r="B124">
         <v>51002</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C124" s="3">
         <v>0.132060185</v>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
       <c r="B125">
         <v>51003</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C125" s="3">
         <v>0.132060185</v>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       <c r="B126">
         <v>46066</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C126" s="3">
         <v>0.132060185</v>
       </c>
     </row>
@@ -1832,7 +1832,7 @@
       <c r="B127">
         <v>46072</v>
       </c>
-      <c r="C127" s="1">
+      <c r="C127" s="3">
         <v>0.132060185</v>
       </c>
     </row>
@@ -1843,7 +1843,7 @@
       <c r="B128">
         <v>46071</v>
       </c>
-      <c r="C128" s="1">
+      <c r="C128" s="3">
         <v>0.132060185</v>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
       <c r="B129">
         <v>51004</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C129" s="3">
         <v>0.132060185</v>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       <c r="B130">
         <v>46002</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C130" s="3">
         <v>9.0393519000000006E-2</v>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       <c r="B131">
         <v>46059</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C131" s="3">
         <v>9.0393519000000006E-2</v>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       <c r="B132">
         <v>46078</v>
       </c>
-      <c r="C132" s="1">
+      <c r="C132" s="3">
         <v>9.0393519000000006E-2</v>
       </c>
     </row>
@@ -1898,7 +1898,7 @@
       <c r="B133">
         <v>51004</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C133" s="3">
         <v>9.0393519000000006E-2</v>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
       <c r="B134">
         <v>51101</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C134" s="3">
         <v>9.0393519000000006E-2</v>
       </c>
     </row>
@@ -1920,7 +1920,7 @@
       <c r="B135">
         <v>46072</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C135" s="3">
         <v>9.0393519000000006E-2</v>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       <c r="B136">
         <v>46066</v>
       </c>
-      <c r="C136" s="1">
+      <c r="C136" s="3">
         <v>9.0393519000000006E-2</v>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       <c r="B137">
         <v>46071</v>
       </c>
-      <c r="C137" s="1">
+      <c r="C137" s="3">
         <v>9.0393519000000006E-2</v>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       <c r="B138">
         <v>51101</v>
       </c>
-      <c r="C138" s="1">
+      <c r="C138" s="3">
         <v>9.0393519000000006E-2</v>
       </c>
     </row>
@@ -1964,7 +1964,7 @@
       <c r="B139">
         <v>46078</v>
       </c>
-      <c r="C139" s="1">
+      <c r="C139" s="3">
         <v>9.0393519000000006E-2</v>
       </c>
     </row>
@@ -1975,7 +1975,7 @@
       <c r="B140">
         <v>51004</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C140" s="3">
         <v>9.0393519000000006E-2</v>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       <c r="B141">
         <v>51001</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C141" s="3">
         <v>9.0393519000000006E-2</v>
       </c>
     </row>
@@ -1997,7 +1997,7 @@
       <c r="B142">
         <v>46002</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C142" s="3">
         <v>9.0393519000000006E-2</v>
       </c>
     </row>
@@ -2008,7 +2008,7 @@
       <c r="B143">
         <v>46002</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C143" s="3">
         <v>4.8726852000000001E-2</v>
       </c>
     </row>
@@ -2019,7 +2019,7 @@
       <c r="B144">
         <v>46025</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C144" s="3">
         <v>4.8726852000000001E-2</v>
       </c>
     </row>
@@ -2030,7 +2030,7 @@
       <c r="B145">
         <v>46053</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C145" s="3">
         <v>4.8726852000000001E-2</v>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
       <c r="B146">
         <v>46087</v>
       </c>
-      <c r="C146" s="1">
+      <c r="C146" s="3">
         <v>4.8726852000000001E-2</v>
       </c>
     </row>
@@ -2052,7 +2052,7 @@
       <c r="B147">
         <v>46088</v>
       </c>
-      <c r="C147" s="1">
+      <c r="C147" s="3">
         <v>4.8726852000000001E-2</v>
       </c>
     </row>
@@ -2063,7 +2063,7 @@
       <c r="B148">
         <v>42040</v>
       </c>
-      <c r="C148" s="1">
+      <c r="C148" s="3">
         <v>7.0601850000000001E-3</v>
       </c>
     </row>
@@ -2074,7 +2074,7 @@
       <c r="B149">
         <v>46087</v>
       </c>
-      <c r="C149" s="1">
+      <c r="C149" s="3">
         <v>7.0601850000000001E-3</v>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       <c r="B150">
         <v>46088</v>
       </c>
-      <c r="C150" s="1">
+      <c r="C150" s="3">
         <v>7.0601850000000001E-3</v>
       </c>
     </row>
@@ -2096,7 +2096,7 @@
       <c r="B151">
         <v>42039</v>
       </c>
-      <c r="C151" s="1">
+      <c r="C151" s="3">
         <v>0.96539351900000003</v>
       </c>
     </row>
@@ -2107,7 +2107,7 @@
       <c r="B152">
         <v>45002</v>
       </c>
-      <c r="C152" s="1">
+      <c r="C152" s="3">
         <v>0.96539351900000003</v>
       </c>
     </row>
@@ -2118,7 +2118,7 @@
       <c r="B153">
         <v>45007</v>
       </c>
-      <c r="C153" s="1">
+      <c r="C153" s="3">
         <v>0.96539351900000003</v>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       <c r="B154">
         <v>46089</v>
       </c>
-      <c r="C154" s="1">
+      <c r="C154" s="3">
         <v>7.0601850000000001E-3</v>
       </c>
     </row>
@@ -2140,7 +2140,7 @@
       <c r="B155">
         <v>46054</v>
       </c>
-      <c r="C155" s="1">
+      <c r="C155" s="3">
         <v>7.0601850000000001E-3</v>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       <c r="B156">
         <v>46069</v>
       </c>
-      <c r="C156" s="1">
+      <c r="C156" s="3">
         <v>7.0601850000000001E-3</v>
       </c>
     </row>
@@ -2162,7 +2162,7 @@
       <c r="B157">
         <v>46042</v>
       </c>
-      <c r="C157" s="1">
+      <c r="C157" s="3">
         <v>7.0601850000000001E-3</v>
       </c>
     </row>
@@ -2173,7 +2173,7 @@
       <c r="B158">
         <v>46047</v>
       </c>
-      <c r="C158" s="1">
+      <c r="C158" s="3">
         <v>7.0601850000000001E-3</v>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
       <c r="B159">
         <v>46084</v>
       </c>
-      <c r="C159" s="1">
+      <c r="C159" s="3">
         <v>7.0601850000000001E-3</v>
       </c>
     </row>
@@ -2195,7 +2195,7 @@
       <c r="B160">
         <v>46086</v>
       </c>
-      <c r="C160" s="1">
+      <c r="C160" s="3">
         <v>7.0601850000000001E-3</v>
       </c>
     </row>
@@ -2206,7 +2206,7 @@
       <c r="B161">
         <v>46015</v>
       </c>
-      <c r="C161" s="1">
+      <c r="C161" s="3">
         <v>7.0601850000000001E-3</v>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       <c r="B162">
         <v>46012</v>
       </c>
-      <c r="C162" s="1">
+      <c r="C162" s="3">
         <v>7.0601850000000001E-3</v>
       </c>
     </row>
@@ -2228,7 +2228,7 @@
       <c r="B163">
         <v>46011</v>
       </c>
-      <c r="C163" s="1">
+      <c r="C163" s="3">
         <v>7.0601850000000001E-3</v>
       </c>
     </row>
@@ -2239,7 +2239,7 @@
       <c r="B164">
         <v>46028</v>
       </c>
-      <c r="C164" s="1">
+      <c r="C164" s="3">
         <v>7.0601850000000001E-3</v>
       </c>
     </row>
@@ -2250,7 +2250,7 @@
       <c r="B165">
         <v>46059</v>
       </c>
-      <c r="C165" s="1">
+      <c r="C165" s="3">
         <v>7.0601850000000001E-3</v>
       </c>
     </row>
@@ -2261,11 +2261,23 @@
       <c r="B166">
         <v>46025</v>
       </c>
-      <c r="C166" s="1">
+      <c r="C166" s="3">
         <v>7.0601850000000001E-3</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>